--- a/reagent_data.xlsx
+++ b/reagent_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,28 +471,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -509,21 +509,21 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Dimethylaniline</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -533,28 +533,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -564,28 +564,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -602,21 +602,21 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -626,28 +626,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Naphthyamine</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nitroaniline</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -657,28 +657,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -688,28 +688,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Nitroaniline</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aniline</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -726,21 +726,21 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -750,11 +750,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Dimethylaniline</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>2.7</v>
@@ -764,11 +764,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>1.3</v>
@@ -781,28 +781,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nitroaniline</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Naphthyamine</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -812,405 +812,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Naphthyamine</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dimethylaniline</t>
+          <t>Nitroaniline</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Aniline</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Aniline</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Aniline</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Dimethylaniline</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Aniline</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Naphthyamine</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Nitroaniline</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
